--- a/Results/CSI_5_results.xlsx
+++ b/Results/CSI_5_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avijitmajhi/Desktop/radar_nowcasting/Results/backup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Geosciences_Project\Nowcasting_OF\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4974477A-3B12-9043-AF24-E4956DB5AC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6ADFC4-18C3-4B0C-8C45-AFE07DED399E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LK_persistence" sheetId="7" r:id="rId1"/>
@@ -25,13 +25,15 @@
     <sheet name="proesmans_extrapolation" sheetId="10" r:id="rId10"/>
     <sheet name="proesmans_sprog" sheetId="11" r:id="rId11"/>
     <sheet name="proesmans_anvil" sheetId="12" r:id="rId12"/>
+    <sheet name="VET_persistence" sheetId="13" r:id="rId13"/>
+    <sheet name="VET_extrapolation" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="19">
   <si>
     <t>Event</t>
   </si>
@@ -457,9 +459,9 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -505,7 +507,7 @@
         <v>1.6945359065088612E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -528,7 +530,7 @@
         <v>0.1540260749425108</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -551,7 +553,7 @@
         <v>2.3694879367313931E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -574,7 +576,7 @@
         <v>3.1245696861510269E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -597,7 +599,7 @@
         <v>1.8327413978749971E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -620,7 +622,7 @@
         <v>1.2537035788186331E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -643,7 +645,7 @@
         <v>1.4809757171373009E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -666,7 +668,7 @@
         <v>4.313551231357516E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -689,7 +691,7 @@
         <v>6.9707952333970752E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -712,7 +714,7 @@
         <v>4.9740470266498839E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -735,7 +737,7 @@
         <v>5.8082813446036913E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -771,9 +773,9 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -796,7 +798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -819,7 +821,7 @@
         <v>3.5079101816473703E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -842,7 +844,7 @@
         <v>4.9542909875552467E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -865,7 +867,7 @@
         <v>2.2544429333993098E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -888,7 +890,7 @@
         <v>5.6285125002587297E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -911,7 +913,7 @@
         <v>1.9710416351682129E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -934,7 +936,7 @@
         <v>6.7787932629931574E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -957,7 +959,7 @@
         <v>9.9567223559127484E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -980,7 +982,7 @@
         <v>1.831995040601268E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1003,7 +1005,7 @@
         <v>9.6535743445882536E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1026,7 +1028,7 @@
         <v>3.4488640103493072E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1049,7 +1051,7 @@
         <v>1.4738644459043361E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1085,9 +1087,9 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1110,7 +1112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1133,7 +1135,7 @@
         <v>6.1962447436160861E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1156,7 +1158,7 @@
         <v>7.2006956176706896E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1179,7 +1181,7 @@
         <v>2.6173250468827208E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1202,7 +1204,7 @@
         <v>7.9495874562838562E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1225,7 +1227,7 @@
         <v>2.354139159575146E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1248,7 +1250,7 @@
         <v>8.7623712583742797E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1271,7 +1273,7 @@
         <v>1.1409976786067821E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1294,7 +1296,7 @@
         <v>1.440347421082575E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1317,7 +1319,7 @@
         <v>2.3339780832683229E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1340,7 +1342,7 @@
         <v>5.9933412805682276E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1363,7 +1365,7 @@
         <v>3.9084778294184519E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1395,13 +1397,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D6F96F-43E1-334A-8106-99C2BD3D6620}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1424,7 +1426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1447,7 +1449,7 @@
         <v>5.0213037369064892E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1470,7 +1472,7 @@
         <v>5.9608673219205738E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1493,7 +1495,7 @@
         <v>2.3648894422345121E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1516,7 +1518,7 @@
         <v>5.3837511610056253E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1539,7 +1541,7 @@
         <v>2.1600996500532509E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1562,7 +1564,7 @@
         <v>6.7501298507780916E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1585,7 +1587,7 @@
         <v>1.12498389473719E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1608,7 +1610,7 @@
         <v>2.4773813113632869E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1631,7 +1633,7 @@
         <v>1.7408164411951029E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1654,7 +1656,7 @@
         <v>4.7086286005243597E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1677,7 +1679,7 @@
         <v>8.871140668617588E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1702,6 +1704,630 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87DAC472-28E3-4835-86B3-97C97A295E49}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>0.249247133292094</v>
+      </c>
+      <c r="C2">
+        <v>0.12906601699843001</v>
+      </c>
+      <c r="D2">
+        <v>8.2695373103372924E-2</v>
+      </c>
+      <c r="E2">
+        <v>5.4884754576334488E-2</v>
+      </c>
+      <c r="F2">
+        <v>3.967948456035416E-2</v>
+      </c>
+      <c r="G2">
+        <v>3.059399439466735E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>0.27824069479543873</v>
+      </c>
+      <c r="C3">
+        <v>0.14094401019779129</v>
+      </c>
+      <c r="D3">
+        <v>8.2213095312845735E-2</v>
+      </c>
+      <c r="E3">
+        <v>5.1934640642434117E-2</v>
+      </c>
+      <c r="F3">
+        <v>3.3316820660203479E-2</v>
+      </c>
+      <c r="G3">
+        <v>1.6945359065088612E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>4.3656389636736327E-2</v>
+      </c>
+      <c r="C4">
+        <v>2.1352653638230999E-2</v>
+      </c>
+      <c r="D4">
+        <v>1.7048594723170319E-2</v>
+      </c>
+      <c r="E4">
+        <v>1.4827676648843531E-2</v>
+      </c>
+      <c r="F4">
+        <v>2.4879075113655981E-2</v>
+      </c>
+      <c r="G4">
+        <v>3.1245696861510269E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.36656064319918158</v>
+      </c>
+      <c r="C5">
+        <v>0.22461645839853989</v>
+      </c>
+      <c r="D5">
+        <v>0.15701878295686489</v>
+      </c>
+      <c r="E5">
+        <v>0.1088552528422098</v>
+      </c>
+      <c r="F5">
+        <v>7.3769495833195045E-2</v>
+      </c>
+      <c r="G5">
+        <v>4.9740470266498839E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>4.1565886233733772E-2</v>
+      </c>
+      <c r="C6">
+        <v>4.7404325086649782E-2</v>
+      </c>
+      <c r="D6">
+        <v>2.6909027914779171E-2</v>
+      </c>
+      <c r="E6">
+        <v>3.1483330047610399E-2</v>
+      </c>
+      <c r="F6">
+        <v>3.2443967100870802E-2</v>
+      </c>
+      <c r="G6">
+        <v>1.2537035788186331E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>0.47143767444762708</v>
+      </c>
+      <c r="C7">
+        <v>0.28043630775810252</v>
+      </c>
+      <c r="D7">
+        <v>0.18463237165908211</v>
+      </c>
+      <c r="E7">
+        <v>0.12850928954103391</v>
+      </c>
+      <c r="F7">
+        <v>8.7632710367405109E-2</v>
+      </c>
+      <c r="G7">
+        <v>5.8082813446036913E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0.1111474737964534</v>
+      </c>
+      <c r="C8">
+        <v>5.9203944895881301E-2</v>
+      </c>
+      <c r="D8">
+        <v>4.3202257391040437E-2</v>
+      </c>
+      <c r="E8">
+        <v>3.4486999048625247E-2</v>
+      </c>
+      <c r="F8">
+        <v>3.6913286029862102E-2</v>
+      </c>
+      <c r="G8">
+        <v>2.3694879367313931E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>8.4682560432339266E-2</v>
+      </c>
+      <c r="C9">
+        <v>2.111070794461422E-2</v>
+      </c>
+      <c r="D9">
+        <v>4.0282918219842583E-2</v>
+      </c>
+      <c r="E9">
+        <v>4.7416790708968058E-2</v>
+      </c>
+      <c r="F9">
+        <v>4.5108732802971237E-2</v>
+      </c>
+      <c r="G9">
+        <v>4.313551231357516E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0.29350249795852779</v>
+      </c>
+      <c r="C10">
+        <v>0.14419723777257959</v>
+      </c>
+      <c r="D10">
+        <v>7.4505811434033301E-2</v>
+      </c>
+      <c r="E10">
+        <v>3.9134891228546513E-2</v>
+      </c>
+      <c r="F10">
+        <v>2.4794092666915079E-2</v>
+      </c>
+      <c r="G10">
+        <v>1.8327413978749971E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>2.2510709385782882E-2</v>
+      </c>
+      <c r="C11">
+        <v>9.1384810333962306E-3</v>
+      </c>
+      <c r="D11">
+        <v>1.0717531889206461E-2</v>
+      </c>
+      <c r="E11">
+        <v>8.4706719071060872E-3</v>
+      </c>
+      <c r="F11">
+        <v>5.4169066697450944E-3</v>
+      </c>
+      <c r="G11">
+        <v>1.4809757171373009E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>0.10208822967322</v>
+      </c>
+      <c r="C12">
+        <v>4.5675193375181743E-2</v>
+      </c>
+      <c r="D12">
+        <v>2.224271994897925E-2</v>
+      </c>
+      <c r="E12">
+        <v>9.1234565457220824E-3</v>
+      </c>
+      <c r="F12">
+        <v>7.0309394469321111E-3</v>
+      </c>
+      <c r="G12">
+        <v>6.9707952333970752E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>0.4458698825363287</v>
+      </c>
+      <c r="C13">
+        <v>0.30162275989896681</v>
+      </c>
+      <c r="D13">
+        <v>0.2324808076399397</v>
+      </c>
+      <c r="E13">
+        <v>0.19286269359231159</v>
+      </c>
+      <c r="F13">
+        <v>0.16992798941029411</v>
+      </c>
+      <c r="G13">
+        <v>0.1540260749425108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063962B2-10C4-4A71-82E3-86FCB19255E8}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>0.42065108161250198</v>
+      </c>
+      <c r="C2">
+        <v>0.27257516415080291</v>
+      </c>
+      <c r="D2">
+        <v>0.19562410673378031</v>
+      </c>
+      <c r="E2">
+        <v>0.14969925676547879</v>
+      </c>
+      <c r="F2">
+        <v>0.12277268700147349</v>
+      </c>
+      <c r="G2">
+        <v>0.10416075610768009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>0.51549292600550312</v>
+      </c>
+      <c r="C3">
+        <v>0.35977640850694242</v>
+      </c>
+      <c r="D3">
+        <v>0.27015408481912889</v>
+      </c>
+      <c r="E3">
+        <v>0.20774619448124709</v>
+      </c>
+      <c r="F3">
+        <v>0.15693576521221969</v>
+      </c>
+      <c r="G3">
+        <v>0.1148136699116411</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>2.6262773918229839E-2</v>
+      </c>
+      <c r="C4">
+        <v>9.8178347491300715E-3</v>
+      </c>
+      <c r="D4">
+        <v>8.7829011499790822E-3</v>
+      </c>
+      <c r="E4">
+        <v>5.5136991533567929E-3</v>
+      </c>
+      <c r="F4">
+        <v>9.4332581249239461E-3</v>
+      </c>
+      <c r="G4">
+        <v>1.7629651189715551E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.50999042411447659</v>
+      </c>
+      <c r="C5">
+        <v>0.33014444593527559</v>
+      </c>
+      <c r="D5">
+        <v>0.23349489421404879</v>
+      </c>
+      <c r="E5">
+        <v>0.17422228963317299</v>
+      </c>
+      <c r="F5">
+        <v>0.13563052374709611</v>
+      </c>
+      <c r="G5">
+        <v>0.1104820346305269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>0.14040493976502921</v>
+      </c>
+      <c r="C6">
+        <v>5.6293833112699837E-2</v>
+      </c>
+      <c r="D6">
+        <v>2.1372348295752821E-2</v>
+      </c>
+      <c r="E6">
+        <v>9.0374753570105337E-3</v>
+      </c>
+      <c r="F6">
+        <v>2.2693552550261328E-3</v>
+      </c>
+      <c r="G6">
+        <v>4.9722890506370272E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>0.54470779396891811</v>
+      </c>
+      <c r="C7">
+        <v>0.34657035145164738</v>
+      </c>
+      <c r="D7">
+        <v>0.24062945797719471</v>
+      </c>
+      <c r="E7">
+        <v>0.1781208174968559</v>
+      </c>
+      <c r="F7">
+        <v>0.13663153299485681</v>
+      </c>
+      <c r="G7">
+        <v>0.1071345243756502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0.29756497685021788</v>
+      </c>
+      <c r="C8">
+        <v>0.1458342134935508</v>
+      </c>
+      <c r="D8">
+        <v>7.3623276410023933E-2</v>
+      </c>
+      <c r="E8">
+        <v>4.3679582927791158E-2</v>
+      </c>
+      <c r="F8">
+        <v>2.995042094263866E-2</v>
+      </c>
+      <c r="G8">
+        <v>2.21138918323158E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>0.23291847170311761</v>
+      </c>
+      <c r="C9">
+        <v>0.1026447133605268</v>
+      </c>
+      <c r="D9">
+        <v>4.9462164556396779E-2</v>
+      </c>
+      <c r="E9">
+        <v>2.8252682585403598E-2</v>
+      </c>
+      <c r="F9">
+        <v>1.4018827887134671E-2</v>
+      </c>
+      <c r="G9">
+        <v>4.7431027728678894E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0.44989142816201699</v>
+      </c>
+      <c r="C10">
+        <v>0.25984483073863701</v>
+      </c>
+      <c r="D10">
+        <v>0.16356568477506919</v>
+      </c>
+      <c r="E10">
+        <v>0.10387131318415339</v>
+      </c>
+      <c r="F10">
+        <v>7.5594475954692375E-2</v>
+      </c>
+      <c r="G10">
+        <v>6.3634719937398276E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0.10364333495866029</v>
+      </c>
+      <c r="C11">
+        <v>4.6154712369840332E-2</v>
+      </c>
+      <c r="D11">
+        <v>2.1277636839145929E-2</v>
+      </c>
+      <c r="E11">
+        <v>9.3447324072911016E-3</v>
+      </c>
+      <c r="F11">
+        <v>4.215479953717881E-3</v>
+      </c>
+      <c r="G11">
+        <v>6.1596980731018162E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>0.16322865319601559</v>
+      </c>
+      <c r="C12">
+        <v>4.7373324210314587E-2</v>
+      </c>
+      <c r="D12">
+        <v>1.7266213674577879E-2</v>
+      </c>
+      <c r="E12">
+        <v>8.9661094086833145E-3</v>
+      </c>
+      <c r="F12">
+        <v>4.3477492254872874E-3</v>
+      </c>
+      <c r="G12">
+        <v>1.9837594544992042E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>0.53605592314263517</v>
+      </c>
+      <c r="C13">
+        <v>0.38806765698034551</v>
+      </c>
+      <c r="D13">
+        <v>0.30370636010972601</v>
+      </c>
+      <c r="E13">
+        <v>0.24876694115074971</v>
+      </c>
+      <c r="F13">
+        <v>0.20985012510836959</v>
+      </c>
+      <c r="G13">
+        <v>0.17941978131270081</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1713,9 +2339,9 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1738,7 +2364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1761,7 +2387,7 @@
         <v>0.1083628997449034</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1784,7 +2410,7 @@
         <v>0.18215104196935869</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1807,7 +2433,7 @@
         <v>2.45324282398784E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1830,7 +2456,7 @@
         <v>5.8134609239332384E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1853,7 +2479,7 @@
         <v>6.6568718854989925E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1876,7 +2502,7 @@
         <v>8.11741465949334E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1899,7 +2525,7 @@
         <v>6.3737535009247594E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1922,7 +2548,7 @@
         <v>4.0064753886795146E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1945,7 +2571,7 @@
         <v>2.800081182164277E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1968,7 +2594,7 @@
         <v>9.9644867874126061E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1991,7 +2617,7 @@
         <v>0.1038672774551397</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -2025,9 +2651,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2050,7 +2676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2073,7 +2699,7 @@
         <v>0.120805410921694</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2096,7 +2722,7 @@
         <v>0.20369832675484109</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2119,7 +2745,7 @@
         <v>0.13677093522092179</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2142,7 +2768,7 @@
         <v>9.920484471589798E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2165,7 +2791,7 @@
         <v>3.4727019542375448E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2188,7 +2814,7 @@
         <v>3.3315213706830299E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2211,7 +2837,7 @@
         <v>9.241930562348866E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2234,7 +2860,7 @@
         <v>0.12494486642428949</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2257,7 +2883,7 @@
         <v>4.2244041584921059E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2280,7 +2906,7 @@
         <v>1.053904813315082E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -2303,7 +2929,7 @@
         <v>8.4824091605172885E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -2337,9 +2963,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2362,7 +2988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2385,7 +3011,7 @@
         <v>8.7950184744641363E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2408,7 +3034,7 @@
         <v>0.1514334962546573</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2431,7 +3057,7 @@
         <v>0.13220472867972341</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2454,7 +3080,7 @@
         <v>7.8244266393410741E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2477,7 +3103,7 @@
         <v>3.8931338071466773E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2500,7 +3126,7 @@
         <v>5.8995343196918014E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2523,7 +3149,7 @@
         <v>6.982902783922329E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2546,7 +3172,7 @@
         <v>9.3426640688439033E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2569,7 +3195,7 @@
         <v>1.5774378343865959E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2592,7 +3218,7 @@
         <v>4.699371396486564E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -2615,7 +3241,7 @@
         <v>1.021412651921259E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -2649,9 +3275,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2674,7 +3300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2697,7 +3323,7 @@
         <v>4.7384656689928299E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2720,7 +3346,7 @@
         <v>0.1644217115923467</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2743,7 +3369,7 @@
         <v>2.0511503168308111E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2766,7 +3392,7 @@
         <v>2.1071863445302211E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2789,7 +3415,7 @@
         <v>2.9823186506180668E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2812,7 +3438,7 @@
         <v>3.7674359416039478E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2835,7 +3461,7 @@
         <v>1.7016609408680369E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2858,7 +3484,7 @@
         <v>5.8053606167053823E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2881,7 +3507,7 @@
         <v>1.207846956026405E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2904,7 +3530,7 @@
         <v>5.013046025631708E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -2927,7 +3553,7 @@
         <v>1.3659781871832991E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -2961,9 +3587,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2986,7 +3612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3009,7 +3635,7 @@
         <v>7.6808964731150592E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3032,7 +3658,7 @@
         <v>0.1909983341413502</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3055,7 +3681,7 @@
         <v>7.9460508178679182E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -3078,7 +3704,7 @@
         <v>2.1356195156443891E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -3101,7 +3727,7 @@
         <v>3.4917271660910611E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3124,7 +3750,7 @@
         <v>3.368396196715151E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -3147,7 +3773,7 @@
         <v>1.114615823959585E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -3170,7 +3796,7 @@
         <v>7.7431466600564783E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3193,7 +3819,7 @@
         <v>1.907706919447368E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -3216,7 +3842,7 @@
         <v>4.440131560287032E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3239,7 +3865,7 @@
         <v>9.80591183166977E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -3273,9 +3899,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3298,7 +3924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3321,7 +3947,7 @@
         <v>0.10106745461685721</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3344,7 +3970,7 @@
         <v>0.21926414781025491</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3367,7 +3993,7 @@
         <v>0.13942505007205941</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -3390,7 +4016,7 @@
         <v>2.7171924011331349E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -3413,7 +4039,7 @@
         <v>2.5453890019377541E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3436,7 +4062,7 @@
         <v>3.5695358369918218E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -3459,7 +4085,7 @@
         <v>1.6622862560469829E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -3482,7 +4108,7 @@
         <v>8.9545711931108884E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3505,7 +4131,7 @@
         <v>1.838662048587195E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -3528,7 +4154,7 @@
         <v>2.1378551250133469E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3551,7 +4177,7 @@
         <v>1.4747030992543301E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -3585,9 +4211,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3610,7 +4236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3633,7 +4259,7 @@
         <v>7.7975670157056837E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3656,7 +4282,7 @@
         <v>0.1788923322972488</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3679,7 +4305,7 @@
         <v>0.1134065938409036</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -3702,7 +4328,7 @@
         <v>2.780323244203069E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -3725,7 +4351,7 @@
         <v>3.905644680958973E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3748,7 +4374,7 @@
         <v>3.1348416947120747E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -3771,7 +4397,7 @@
         <v>1.511439859083186E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -3794,7 +4420,7 @@
         <v>8.0608703634825252E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3817,7 +4443,7 @@
         <v>7.1456114865363967E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -3840,7 +4466,7 @@
         <v>4.8120235553537213E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3863,7 +4489,7 @@
         <v>1.1527506521107071E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -3899,9 +4525,9 @@
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3924,7 +4550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -3947,7 +4573,7 @@
         <v>3.059399439466735E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3970,7 +4596,7 @@
         <v>1.6945359065088612E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3993,7 +4619,7 @@
         <v>3.1245696861510269E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -4016,7 +4642,7 @@
         <v>4.9740470266498839E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -4039,7 +4665,7 @@
         <v>1.2537035788186331E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -4062,7 +4688,7 @@
         <v>5.8082813446036913E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -4085,7 +4711,7 @@
         <v>2.3694879367313931E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -4108,7 +4734,7 @@
         <v>4.313551231357516E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4131,7 +4757,7 @@
         <v>1.8327413978749971E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -4154,7 +4780,7 @@
         <v>1.4809757171373009E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -4177,7 +4803,7 @@
         <v>6.9707952333970752E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>

--- a/Results/CSI_5_results.xlsx
+++ b/Results/CSI_5_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Geosciences_Project\Nowcasting_OF\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6ADFC4-18C3-4B0C-8C45-AFE07DED399E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC881D6-DFED-418D-A408-1A5C9030FAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LK_persistence" sheetId="7" r:id="rId1"/>
@@ -25,15 +25,13 @@
     <sheet name="proesmans_extrapolation" sheetId="10" r:id="rId10"/>
     <sheet name="proesmans_sprog" sheetId="11" r:id="rId11"/>
     <sheet name="proesmans_anvil" sheetId="12" r:id="rId12"/>
-    <sheet name="VET_persistence" sheetId="13" r:id="rId13"/>
-    <sheet name="VET_extrapolation" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="19">
   <si>
     <t>Event</t>
   </si>
@@ -1397,7 +1395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D6F96F-43E1-334A-8106-99C2BD3D6620}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -1704,630 +1702,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87DAC472-28E3-4835-86B3-97C97A295E49}">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2">
-        <v>0.249247133292094</v>
-      </c>
-      <c r="C2">
-        <v>0.12906601699843001</v>
-      </c>
-      <c r="D2">
-        <v>8.2695373103372924E-2</v>
-      </c>
-      <c r="E2">
-        <v>5.4884754576334488E-2</v>
-      </c>
-      <c r="F2">
-        <v>3.967948456035416E-2</v>
-      </c>
-      <c r="G2">
-        <v>3.059399439466735E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>0.27824069479543873</v>
-      </c>
-      <c r="C3">
-        <v>0.14094401019779129</v>
-      </c>
-      <c r="D3">
-        <v>8.2213095312845735E-2</v>
-      </c>
-      <c r="E3">
-        <v>5.1934640642434117E-2</v>
-      </c>
-      <c r="F3">
-        <v>3.3316820660203479E-2</v>
-      </c>
-      <c r="G3">
-        <v>1.6945359065088612E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>4.3656389636736327E-2</v>
-      </c>
-      <c r="C4">
-        <v>2.1352653638230999E-2</v>
-      </c>
-      <c r="D4">
-        <v>1.7048594723170319E-2</v>
-      </c>
-      <c r="E4">
-        <v>1.4827676648843531E-2</v>
-      </c>
-      <c r="F4">
-        <v>2.4879075113655981E-2</v>
-      </c>
-      <c r="G4">
-        <v>3.1245696861510269E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0.36656064319918158</v>
-      </c>
-      <c r="C5">
-        <v>0.22461645839853989</v>
-      </c>
-      <c r="D5">
-        <v>0.15701878295686489</v>
-      </c>
-      <c r="E5">
-        <v>0.1088552528422098</v>
-      </c>
-      <c r="F5">
-        <v>7.3769495833195045E-2</v>
-      </c>
-      <c r="G5">
-        <v>4.9740470266498839E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>4.1565886233733772E-2</v>
-      </c>
-      <c r="C6">
-        <v>4.7404325086649782E-2</v>
-      </c>
-      <c r="D6">
-        <v>2.6909027914779171E-2</v>
-      </c>
-      <c r="E6">
-        <v>3.1483330047610399E-2</v>
-      </c>
-      <c r="F6">
-        <v>3.2443967100870802E-2</v>
-      </c>
-      <c r="G6">
-        <v>1.2537035788186331E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>0.47143767444762708</v>
-      </c>
-      <c r="C7">
-        <v>0.28043630775810252</v>
-      </c>
-      <c r="D7">
-        <v>0.18463237165908211</v>
-      </c>
-      <c r="E7">
-        <v>0.12850928954103391</v>
-      </c>
-      <c r="F7">
-        <v>8.7632710367405109E-2</v>
-      </c>
-      <c r="G7">
-        <v>5.8082813446036913E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>0.1111474737964534</v>
-      </c>
-      <c r="C8">
-        <v>5.9203944895881301E-2</v>
-      </c>
-      <c r="D8">
-        <v>4.3202257391040437E-2</v>
-      </c>
-      <c r="E8">
-        <v>3.4486999048625247E-2</v>
-      </c>
-      <c r="F8">
-        <v>3.6913286029862102E-2</v>
-      </c>
-      <c r="G8">
-        <v>2.3694879367313931E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>8.4682560432339266E-2</v>
-      </c>
-      <c r="C9">
-        <v>2.111070794461422E-2</v>
-      </c>
-      <c r="D9">
-        <v>4.0282918219842583E-2</v>
-      </c>
-      <c r="E9">
-        <v>4.7416790708968058E-2</v>
-      </c>
-      <c r="F9">
-        <v>4.5108732802971237E-2</v>
-      </c>
-      <c r="G9">
-        <v>4.313551231357516E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>0.29350249795852779</v>
-      </c>
-      <c r="C10">
-        <v>0.14419723777257959</v>
-      </c>
-      <c r="D10">
-        <v>7.4505811434033301E-2</v>
-      </c>
-      <c r="E10">
-        <v>3.9134891228546513E-2</v>
-      </c>
-      <c r="F10">
-        <v>2.4794092666915079E-2</v>
-      </c>
-      <c r="G10">
-        <v>1.8327413978749971E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>2.2510709385782882E-2</v>
-      </c>
-      <c r="C11">
-        <v>9.1384810333962306E-3</v>
-      </c>
-      <c r="D11">
-        <v>1.0717531889206461E-2</v>
-      </c>
-      <c r="E11">
-        <v>8.4706719071060872E-3</v>
-      </c>
-      <c r="F11">
-        <v>5.4169066697450944E-3</v>
-      </c>
-      <c r="G11">
-        <v>1.4809757171373009E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>0.10208822967322</v>
-      </c>
-      <c r="C12">
-        <v>4.5675193375181743E-2</v>
-      </c>
-      <c r="D12">
-        <v>2.224271994897925E-2</v>
-      </c>
-      <c r="E12">
-        <v>9.1234565457220824E-3</v>
-      </c>
-      <c r="F12">
-        <v>7.0309394469321111E-3</v>
-      </c>
-      <c r="G12">
-        <v>6.9707952333970752E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13">
-        <v>0.4458698825363287</v>
-      </c>
-      <c r="C13">
-        <v>0.30162275989896681</v>
-      </c>
-      <c r="D13">
-        <v>0.2324808076399397</v>
-      </c>
-      <c r="E13">
-        <v>0.19286269359231159</v>
-      </c>
-      <c r="F13">
-        <v>0.16992798941029411</v>
-      </c>
-      <c r="G13">
-        <v>0.1540260749425108</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063962B2-10C4-4A71-82E3-86FCB19255E8}">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2">
-        <v>0.42065108161250198</v>
-      </c>
-      <c r="C2">
-        <v>0.27257516415080291</v>
-      </c>
-      <c r="D2">
-        <v>0.19562410673378031</v>
-      </c>
-      <c r="E2">
-        <v>0.14969925676547879</v>
-      </c>
-      <c r="F2">
-        <v>0.12277268700147349</v>
-      </c>
-      <c r="G2">
-        <v>0.10416075610768009</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>0.51549292600550312</v>
-      </c>
-      <c r="C3">
-        <v>0.35977640850694242</v>
-      </c>
-      <c r="D3">
-        <v>0.27015408481912889</v>
-      </c>
-      <c r="E3">
-        <v>0.20774619448124709</v>
-      </c>
-      <c r="F3">
-        <v>0.15693576521221969</v>
-      </c>
-      <c r="G3">
-        <v>0.1148136699116411</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>2.6262773918229839E-2</v>
-      </c>
-      <c r="C4">
-        <v>9.8178347491300715E-3</v>
-      </c>
-      <c r="D4">
-        <v>8.7829011499790822E-3</v>
-      </c>
-      <c r="E4">
-        <v>5.5136991533567929E-3</v>
-      </c>
-      <c r="F4">
-        <v>9.4332581249239461E-3</v>
-      </c>
-      <c r="G4">
-        <v>1.7629651189715551E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0.50999042411447659</v>
-      </c>
-      <c r="C5">
-        <v>0.33014444593527559</v>
-      </c>
-      <c r="D5">
-        <v>0.23349489421404879</v>
-      </c>
-      <c r="E5">
-        <v>0.17422228963317299</v>
-      </c>
-      <c r="F5">
-        <v>0.13563052374709611</v>
-      </c>
-      <c r="G5">
-        <v>0.1104820346305269</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>0.14040493976502921</v>
-      </c>
-      <c r="C6">
-        <v>5.6293833112699837E-2</v>
-      </c>
-      <c r="D6">
-        <v>2.1372348295752821E-2</v>
-      </c>
-      <c r="E6">
-        <v>9.0374753570105337E-3</v>
-      </c>
-      <c r="F6">
-        <v>2.2693552550261328E-3</v>
-      </c>
-      <c r="G6">
-        <v>4.9722890506370272E-5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>0.54470779396891811</v>
-      </c>
-      <c r="C7">
-        <v>0.34657035145164738</v>
-      </c>
-      <c r="D7">
-        <v>0.24062945797719471</v>
-      </c>
-      <c r="E7">
-        <v>0.1781208174968559</v>
-      </c>
-      <c r="F7">
-        <v>0.13663153299485681</v>
-      </c>
-      <c r="G7">
-        <v>0.1071345243756502</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>0.29756497685021788</v>
-      </c>
-      <c r="C8">
-        <v>0.1458342134935508</v>
-      </c>
-      <c r="D8">
-        <v>7.3623276410023933E-2</v>
-      </c>
-      <c r="E8">
-        <v>4.3679582927791158E-2</v>
-      </c>
-      <c r="F8">
-        <v>2.995042094263866E-2</v>
-      </c>
-      <c r="G8">
-        <v>2.21138918323158E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>0.23291847170311761</v>
-      </c>
-      <c r="C9">
-        <v>0.1026447133605268</v>
-      </c>
-      <c r="D9">
-        <v>4.9462164556396779E-2</v>
-      </c>
-      <c r="E9">
-        <v>2.8252682585403598E-2</v>
-      </c>
-      <c r="F9">
-        <v>1.4018827887134671E-2</v>
-      </c>
-      <c r="G9">
-        <v>4.7431027728678894E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>0.44989142816201699</v>
-      </c>
-      <c r="C10">
-        <v>0.25984483073863701</v>
-      </c>
-      <c r="D10">
-        <v>0.16356568477506919</v>
-      </c>
-      <c r="E10">
-        <v>0.10387131318415339</v>
-      </c>
-      <c r="F10">
-        <v>7.5594475954692375E-2</v>
-      </c>
-      <c r="G10">
-        <v>6.3634719937398276E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>0.10364333495866029</v>
-      </c>
-      <c r="C11">
-        <v>4.6154712369840332E-2</v>
-      </c>
-      <c r="D11">
-        <v>2.1277636839145929E-2</v>
-      </c>
-      <c r="E11">
-        <v>9.3447324072911016E-3</v>
-      </c>
-      <c r="F11">
-        <v>4.215479953717881E-3</v>
-      </c>
-      <c r="G11">
-        <v>6.1596980731018162E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>0.16322865319601559</v>
-      </c>
-      <c r="C12">
-        <v>4.7373324210314587E-2</v>
-      </c>
-      <c r="D12">
-        <v>1.7266213674577879E-2</v>
-      </c>
-      <c r="E12">
-        <v>8.9661094086833145E-3</v>
-      </c>
-      <c r="F12">
-        <v>4.3477492254872874E-3</v>
-      </c>
-      <c r="G12">
-        <v>1.9837594544992042E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13">
-        <v>0.53605592314263517</v>
-      </c>
-      <c r="C13">
-        <v>0.38806765698034551</v>
-      </c>
-      <c r="D13">
-        <v>0.30370636010972601</v>
-      </c>
-      <c r="E13">
-        <v>0.24876694115074971</v>
-      </c>
-      <c r="F13">
-        <v>0.20985012510836959</v>
-      </c>
-      <c r="G13">
-        <v>0.17941978131270081</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
